--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -17,58 +17,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>C:\Program Files (x86)\Opera\opera.exe", </t>
-  </si>
-  <si>
-    <t>C:\Program Files\Firefox Developer Edition\firefox.exe", //(aurora)</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Opera developer\launcher.exe",         </t>
-  </si>
-  <si>
-    <t>C:\Users\greg\AppData\Local\Google\Chrome SxS\Application\chrome.exe", //(canary)</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\bin\gimp-2.8.exe", </t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Paint.NET\PaintDotNet.exe", </t>
-  </si>
-  <si>
-    <t>C:\Users\greg\AppData\Local\Vivaldi\Application\vivaldi.exe", </t>
-  </si>
-  <si>
-    <t>C:\Users\greg\Desktop\ZZZ open in\_emacs-25.1-2-x86_64-w64-mingw32\bin\runemacs.exe", , </t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Xamarin Studio\bin\XamarinStudio.exe", </t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Altova\XMLSpy2016\XMLSpy.exe", , </t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Markdown Monster\MarkdownMonster.exe", , </t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Microsoft Visual Studio 11.0\Common7\IDE\devenv.exe", )]</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\devenv.exe", )]</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe", )]</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Microsoft Visual Studio\2017\Community\Common7\IDE\devenv.exe", )]</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Microsoft Visual Studio\2017\Enterprise\Common7\IDE\devenv.exe", )]</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Microsoft Visual Studio\2017\Professional\Common7\IDE\devenv.exe", )]</t>
-  </si>
-  <si>
-    <t>C:\Windows\system32\mspaint.exe", , )]   </t>
+    <t>C:\Program Files\Firefox Developer Edition\firefox.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\greg\AppData\Local\Google\Chrome SxS\Application\chrome.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Opera developer\launcher.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Altova\XMLSpy2016\XMLSpy.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\bin\gimp-2.8.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Markdown Monster\MarkdownMonster.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Opera\opera.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Paint.NET\PaintDotNet.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Xamarin Studio\bin\XamarinStudio.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\greg\AppData\Local\Vivaldi\Application\vivaldi.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\greg\Desktop\ZZZ open in\_emacs-25.1-2-x86_64-w64-mingw32\bin\runemacs.exe</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\mspaint.exe </t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft Visual Studio\2017\Professional\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft Visual Studio\2017\Enterprise\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft Visual Studio\2017\Community\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft Visual Studio 11.0\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\devenv.exe</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -436,7 +436,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
@@ -446,22 +446,22 @@
     </row>
     <row r="3" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
@@ -471,22 +471,22 @@
     </row>
     <row r="8" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
@@ -496,7 +496,7 @@
     </row>
     <row r="13" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
@@ -506,22 +506,22 @@
     </row>
     <row r="15" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>C:\Program Files\Firefox Developer Edition\firefox.exe</t>
   </si>
@@ -69,13 +69,132 @@
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> userAppData = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DirectoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Environment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.GetFolderPath(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Environment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SpecialFolder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.ApplicationData));</t>
+    </r>
+  </si>
+  <si>
+    <t>pgm86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pgm </t>
+  </si>
+  <si>
+    <t>appdata</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>win</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -90,6 +209,30 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2B91AF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -114,12 +257,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,105 +573,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="112.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="3"/>
+    <col min="3" max="3" width="129.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>C:\Program Files\Firefox Developer Edition\firefox.exe</t>
   </si>
@@ -184,10 +184,284 @@
     <t>appdata</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>win</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Summary:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     The logical Desktop rather than the physical file system location.</t>
+    </r>
+  </si>
+  <si>
+    <t>          Desktop = 0,</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     The directory that contains the user's program groups.</t>
+    </r>
+  </si>
+  <si>
+    <t>          Programs = 2,</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     The directory that serves as a common repository for application-specific data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     for the current roaming user.</t>
+    </r>
+  </si>
+  <si>
+    <t>          ApplicationData = 26,</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     that is used by the current, non-roaming user.</t>
+    </r>
+  </si>
+  <si>
+    <t>          LocalApplicationData = 28,</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     that is used by all users.</t>
+    </r>
+  </si>
+  <si>
+    <t>          CommonApplicationData = 35,</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     The Windows directory or SYSROOT. This corresponds to the %windir% or %SYSTEMROOT%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     environment variables.</t>
+    </r>
+  </si>
+  <si>
+    <t>          Windows = 36,</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     The System directory.</t>
+    </r>
+  </si>
+  <si>
+    <t>          System = 37,</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     The program files directory.</t>
+    </r>
+  </si>
+  <si>
+    <t>          ProgramFiles = 38,</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     The user's profile folder. Applications should not create files or folders at</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     this level; they should put their data under the locations referred to by System.Environment.SpecialFolder.ApplicationData.</t>
+    </r>
+  </si>
+  <si>
+    <t>          UserProfile = 40,</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     The Windows System folder.</t>
+    </r>
+  </si>
+  <si>
+    <t>          SystemX86 = 41,</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     The Program Files folder.</t>
+    </r>
+  </si>
+  <si>
+    <t>          ProgramFilesX86 = 42,</t>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//     The directory for components that are shared across applications.</t>
+    </r>
+  </si>
+  <si>
+    <t>          CommonProgramFiles = 43,</t>
+  </si>
+  <si>
+    <t>          CommonProgramFilesX86 = 44,</t>
   </si>
 </sst>
 </file>
@@ -220,6 +494,12 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
@@ -227,12 +507,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF0000FF"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -262,13 +536,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -573,101 +847,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="91.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="3"/>
-    <col min="3" max="3" width="129.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="3"/>
+    <col min="1" max="1" width="91.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="4"/>
+    <col min="3" max="3" width="129.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -675,27 +949,482 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>22</v>
-      </c>
+    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A1:A181">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>C:\Program Files\Firefox Developer Edition\firefox.exe</t>
   </si>
@@ -69,110 +69,6 @@
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\devenv.exe</t>
-  </si>
-  <si>
-    <r>
-      <t>var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> userAppData = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2B91AF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DirectoryInfo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2B91AF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Environment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.GetFolderPath(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2B91AF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Environment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2B91AF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>SpecialFolder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.ApplicationData));</t>
-    </r>
   </si>
   <si>
     <t>pgm86</t>
@@ -463,13 +359,128 @@
   <si>
     <t>          CommonProgramFilesX86 = 44,</t>
   </si>
+  <si>
+    <t>Executable</t>
+  </si>
+  <si>
+    <t>XMLSpy.exe</t>
+  </si>
+  <si>
+    <t>gimp-2.8.exe</t>
+  </si>
+  <si>
+    <t>MarkdownMonster.exe</t>
+  </si>
+  <si>
+    <t>devenv.exe</t>
+  </si>
+  <si>
+    <t>opera.exe</t>
+  </si>
+  <si>
+    <t>PaintDotNet.exe</t>
+  </si>
+  <si>
+    <t>XamarinStudio.exe</t>
+  </si>
+  <si>
+    <t>firefox.exe</t>
+  </si>
+  <si>
+    <t>launcher.exe</t>
+  </si>
+  <si>
+    <t>chrome.exe</t>
+  </si>
+  <si>
+    <t>vivaldi.exe</t>
+  </si>
+  <si>
+    <t>runemacs.exe</t>
+  </si>
+  <si>
+    <t>mspaint.exe </t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>system32</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio 12.0\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio\2017\Community\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio\2017\Enterprise\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio\2017\Professional\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Paint.NET</t>
+  </si>
+  <si>
+    <t>Xamarin Studio\bin</t>
+  </si>
+  <si>
+    <t>Firefox Developer Edition</t>
+  </si>
+  <si>
+    <t>Opera developer</t>
+  </si>
+  <si>
+    <t>Google\Chrome SxS\Application</t>
+  </si>
+  <si>
+    <t>Vivaldi\Application</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio 11.0\Common7\IDE\devenv.exe</t>
+  </si>
+  <si>
+    <t>Altova\XMLSpy2016</t>
+  </si>
+  <si>
+    <t>Markdown Monster</t>
+  </si>
+  <si>
+    <t>Middle path</t>
+  </si>
+  <si>
+    <t>alternative top level if primary top level not found</t>
+  </si>
+  <si>
+    <t>primary TopLevelFolderTypes</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Search descending year number folders</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -483,18 +494,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2B91AF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF008000"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -502,13 +501,13 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -537,14 +536,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,584 +848,507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="91.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="4"/>
-    <col min="3" max="3" width="129.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="4"/>
+    <col min="1" max="1" width="78.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-    </row>
-    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-    </row>
-    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-    </row>
-    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-    </row>
-    <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
-    </row>
-    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
-    </row>
-    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-    </row>
-    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-    </row>
-    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-    </row>
-    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
-    </row>
-    <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
-    </row>
-    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-    </row>
-    <row r="109" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
-    </row>
-    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
-    </row>
-    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-    </row>
-    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
-    </row>
-    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
-    </row>
-    <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
-    </row>
-    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="2"/>
-    </row>
-    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
-    </row>
-    <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
-    </row>
-    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="2"/>
-    </row>
-    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="2"/>
-    </row>
-    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="2"/>
-    </row>
-    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="2"/>
-    </row>
-    <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
-    </row>
-    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
-    </row>
-    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="2"/>
-    </row>
-    <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="2"/>
-    </row>
-    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="2"/>
-    </row>
-    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="2"/>
-    </row>
-    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="2"/>
-    </row>
-    <row r="130" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="2"/>
-    </row>
-    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="2"/>
-    </row>
-    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
-    </row>
-    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
+      <c r="C19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A1:A181">
@@ -1437,12 +1361,364 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -360,9 +360,6 @@
     <t>          CommonProgramFilesX86 = 44,</t>
   </si>
   <si>
-    <t>Executable</t>
-  </si>
-  <si>
     <t>XMLSpy.exe</t>
   </si>
   <si>
@@ -453,19 +450,22 @@
     <t>Markdown Monster</t>
   </si>
   <si>
-    <t>Middle path</t>
-  </si>
-  <si>
-    <t>alternative top level if primary top level not found</t>
-  </si>
-  <si>
-    <t>primary TopLevelFolderTypes</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
-    <t>Search descending year number folders</t>
+    <t>SecondaryFilePathSegmentHasMultipleYearNumberVersions</t>
+  </si>
+  <si>
+    <t>ExecutableFileToBrowseFor</t>
+  </si>
+  <si>
+    <t>SecondaryFilePathSegment</t>
+  </si>
+  <si>
+    <t>PrimaryTopLevelFolderType</t>
+  </si>
+  <si>
+    <t>AlternativeTopLevelFolderType</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -862,21 +864,21 @@
     <col min="6" max="16384" width="9.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -890,10 +892,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="b">
         <v>1</v>
@@ -910,10 +912,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="4" t="b">
         <v>0</v>
@@ -930,10 +932,10 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="4" t="b">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4" t="b">
         <v>0</v>
@@ -970,10 +972,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="4" t="b">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="4" t="b">
         <v>0</v>
@@ -1010,10 +1012,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="4" t="b">
         <v>0</v>
@@ -1030,10 +1032,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="4" t="b">
         <v>0</v>
@@ -1050,10 +1052,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="4" t="b">
         <v>0</v>
@@ -1070,10 +1072,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="4" t="b">
         <v>0</v>
@@ -1090,10 +1092,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="4" t="b">
         <v>0</v>
@@ -1110,10 +1112,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="4" t="b">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
@@ -1150,10 +1152,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="4" t="b">
         <v>0</v>
@@ -1167,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="4" t="b">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="4" t="b">
         <v>0</v>
@@ -1204,16 +1206,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="b">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="4" t="b">
         <v>0</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregoryT\Source\Repos\OpenInApp.Launcher\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15150" windowHeight="9540"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
   <si>
     <t>C:\Program Files\Firefox Developer Edition\firefox.exe</t>
   </si>
@@ -466,6 +471,9 @@
   </si>
   <si>
     <t>AlternativeTopLevelFolderType</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -557,6 +565,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -604,7 +615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,7 +650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -861,10 +872,12 @@
     <col min="3" max="3" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="4"/>
+    <col min="6" max="8" width="9.33203125" style="4"/>
+    <col min="9" max="9" width="57.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>86</v>
       </c>
@@ -881,7 +894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -901,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -920,8 +933,11 @@
       <c r="F3" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -940,8 +956,11 @@
       <c r="F4" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -960,8 +979,11 @@
       <c r="F5" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="F6" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1000,8 +1025,11 @@
       <c r="F7" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1020,8 +1048,11 @@
       <c r="F8" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1040,8 +1071,11 @@
       <c r="F9" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1060,8 +1094,11 @@
       <c r="F10" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1117,11 @@
       <c r="F11" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1100,8 +1140,11 @@
       <c r="F12" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1120,8 +1163,11 @@
       <c r="F13" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1140,8 +1186,11 @@
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1160,8 +1209,11 @@
       <c r="F15" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1180,8 +1232,11 @@
       <c r="F16" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1200,8 +1255,11 @@
       <c r="F17" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
@@ -1240,8 +1298,11 @@
       <c r="F19" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>C:\Program Files\Firefox Developer Edition\firefox.exe</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>AlternativeTopLevelFolderType</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -518,12 +515,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -538,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -553,6 +556,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -859,25 +865,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="78.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.33203125" style="4"/>
+    <col min="6" max="6" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.33203125" style="4"/>
     <col min="9" max="9" width="57.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>86</v>
       </c>
@@ -894,7 +901,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -910,11 +917,11 @@
       <c r="E2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="4" t="b">
+      <c r="F2" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -933,11 +940,8 @@
       <c r="F3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -956,11 +960,8 @@
       <c r="F4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -979,11 +980,8 @@
       <c r="F5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1002,11 +1000,8 @@
       <c r="F6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1025,11 +1020,8 @@
       <c r="F7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1048,11 +1040,8 @@
       <c r="F8" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1071,11 +1060,8 @@
       <c r="F9" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1094,11 +1080,8 @@
       <c r="F10" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1117,11 +1100,8 @@
       <c r="F11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1140,11 +1120,8 @@
       <c r="F12" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1163,11 +1140,8 @@
       <c r="F13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1186,11 +1160,8 @@
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1209,11 +1180,8 @@
       <c r="F15" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1232,11 +1200,8 @@
       <c r="F16" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1255,21 +1220,18 @@
       <c r="F17" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1279,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
@@ -1298,11 +1260,8 @@
       <c r="F19" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregoryT\Source\Repos\OpenInApp.Launcher\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15150" windowHeight="9540"/>
   </bookViews>
@@ -515,7 +510,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -559,6 +560,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -621,7 +634,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -656,7 +669,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,7 +881,7 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -905,16 +918,16 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="6" t="b">
@@ -925,19 +938,19 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="4" t="b">
+      <c r="F3" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -945,19 +958,19 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="4" t="b">
+      <c r="F4" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -965,19 +978,19 @@
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="4" t="b">
+      <c r="F5" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -985,19 +998,19 @@
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="4" t="b">
+      <c r="F6" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1005,19 +1018,19 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="4" t="b">
+      <c r="F7" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1025,19 +1038,19 @@
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="4" t="b">
+      <c r="F8" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1045,19 +1058,19 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="4" t="b">
+      <c r="F9" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1065,19 +1078,19 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="4" t="b">
+      <c r="F10" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1085,19 +1098,19 @@
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="4" t="b">
+      <c r="F11" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1105,19 +1118,19 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="4" t="b">
+      <c r="F12" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1125,19 +1138,19 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="4" t="b">
+      <c r="F13" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1145,19 +1158,19 @@
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="4" t="b">
+      <c r="F14" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1165,19 +1178,19 @@
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="4" t="b">
+      <c r="F15" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1185,19 +1198,19 @@
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="4" t="b">
+      <c r="F16" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1205,19 +1218,19 @@
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="4" t="b">
+      <c r="F17" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1234,10 +1247,10 @@
       <c r="D18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="4" t="b">
+      <c r="F18" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1245,19 +1258,19 @@
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="4" t="b">
+      <c r="F19" s="7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -881,7 +881,7 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -881,7 +881,7 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1224,7 +1224,7 @@
       <c r="C17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -1238,13 +1238,13 @@
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>82</v>
       </c>
       <c r="E18" s="9" t="s">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregoryT\Source\Repos\OpenInApp.Launcher\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15150" windowHeight="9540"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15150" windowHeight="9540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="109">
   <si>
     <t>C:\Program Files\Firefox Developer Edition\firefox.exe</t>
   </si>
@@ -467,12 +473,106 @@
   <si>
     <t>AlternativeTopLevelFolderType</t>
   </si>
+  <si>
+    <t>[TestCase("</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <t>[TestCase("XMLSpy.exe", "C:\Program Files (x86)\Altova\XMLSpy2016\XMLSpy.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("gimp-2.8.exe", "C:\Program Files (x86)\bin\gimp-2.8.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("MarkdownMonster.exe", "C:\Program Files (x86)\Markdown Monster\MarkdownMonster.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio 11.0\Common7\IDE\devenv.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\devenv.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio\2017\Community\Common7\IDE\devenv.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio\2017\Enterprise\Common7\IDE\devenv.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio\2017\Professional\Common7\IDE\devenv.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("opera.exe", "C:\Program Files (x86)\Opera\opera.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("PaintDotNet.exe", "C:\Program Files (x86)\Paint.NET\PaintDotNet.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("XamarinStudio.exe", "C:\Program Files (x86)\Xamarin Studio\bin\XamarinStudio.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("firefox.exe", "C:\Program Files\Firefox Developer Edition\firefox.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("launcher.exe", "C:\Program Files\Opera developer\launcher.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("chrome.exe", "C:\Users\greg\AppData\Local\Google\Chrome SxS\Application\chrome.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("vivaldi.exe", "C:\Users\greg\AppData\Local\Vivaldi\Application\vivaldi.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("runemacs.exe", "C:\Users\greg\Desktop\ZZZ open in\_emacs-25.1-2-x86_64-w64-mingw32\bin\runemacs.exe")]</t>
+  </si>
+  <si>
+    <t>[TestCase("mspaint.exe ", "C:\Windows\system32\mspaint.exe ")]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -509,6 +609,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -542,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -573,6 +679,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,7 +755,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,7 +790,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1756,4 +1877,576 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="13" customWidth="1"/>
+    <col min="4" max="4" width="83.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="13"/>
+    <col min="6" max="6" width="57.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.33203125" style="13"/>
+    <col min="9" max="9" width="49.6640625" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.33203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="13" t="str">
+        <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
+        <v>[TestCase("XMLSpy.exe", "C:\Program Files (x86)\Altova\XMLSpy2016\XMLSpy.exe")]</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="13" t="str">
+        <f t="shared" ref="F3:F19" si="0">CONCATENATE(A3,B3,C3,D3,E3)</f>
+        <v>[TestCase("gimp-2.8.exe", "C:\Program Files (x86)\bin\gimp-2.8.exe")]</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("MarkdownMonster.exe", "C:\Program Files (x86)\Markdown Monster\MarkdownMonster.exe")]</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="123.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio 11.0\Common7\IDE\devenv.exe")]</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="123.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\devenv.exe")]</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="123.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe")]</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio\2017\Community\Common7\IDE\devenv.exe")]</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio\2017\Enterprise\Common7\IDE\devenv.exe")]</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("devenv.exe", "C:\Program Files (x86)\Microsoft Visual Studio\2017\Professional\Common7\IDE\devenv.exe")]</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("opera.exe", "C:\Program Files (x86)\Opera\opera.exe")]</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("PaintDotNet.exe", "C:\Program Files (x86)\Paint.NET\PaintDotNet.exe")]</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("XamarinStudio.exe", "C:\Program Files (x86)\Xamarin Studio\bin\XamarinStudio.exe")]</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("firefox.exe", "C:\Program Files\Firefox Developer Edition\firefox.exe")]</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("launcher.exe", "C:\Program Files\Opera developer\launcher.exe")]</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="123.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("chrome.exe", "C:\Users\greg\AppData\Local\Google\Chrome SxS\Application\chrome.exe")]</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("vivaldi.exe", "C:\Users\greg\AppData\Local\Vivaldi\Application\vivaldi.exe")]</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("runemacs.exe", "C:\Users\greg\Desktop\ZZZ open in\_emacs-25.1-2-x86_64-w64-mingw32\bin\runemacs.exe")]</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>[TestCase("mspaint.exe ", "C:\Windows\system32\mspaint.exe ")]</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="12"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="12"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="12"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="12"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="12"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="12"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="12"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="12"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="12"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="12"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="12"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="12"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="12"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="12"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="12"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="12"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="12"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="12"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="12"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="12"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="12"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="12"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="12"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="12"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="12"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="12"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="12"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="12"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="12"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="12"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="12"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="12"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="12"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="12"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="12"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>